--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/2M3U3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/2M3U3I3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA213F25-D698-41FD-B63D-9B1E10491806}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7EBC90-0415-49AA-AF18-E7F7CED09D84}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1574,10 +1574,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1600,7 +1603,7 @@
         <v>125</v>
       </c>
       <c r="B3" s="2">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1611,7 @@
         <v>126</v>
       </c>
       <c r="B4" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
